--- a/doc/ams_mysql.xlsx
+++ b/doc/ams_mysql.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$27:$G$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,285 +22,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>classname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>classcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>keyboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>keyboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hard_disk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>power_adaptor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>item_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>k2450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>e4430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>e49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>k20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>k21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>power_adapter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>item_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktopcomputer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebookcomputer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">name </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>parentID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>harddisk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>keyboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>memory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SSD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktop_memory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_memory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_memory_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_memory_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktop_memory_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_keyboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_k_e4430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_k_k2450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_k_k20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_k_k21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_k_e49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktop_power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_p_e4430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_p_e49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_p_k20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_p_k21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ssd_500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ssd_250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktop_harddisk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notebook_harddisk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desktop_memory_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-5</t>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>classpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>n_p_k2450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,14 +384,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,7 +404,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,15 +413,18 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -503,7 +518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -680,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,7 +929,7 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>23</v>
@@ -923,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>57</v>
@@ -987,8 +1002,8 @@
       <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>54</v>
+      <c r="G31" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H31" s="10">
         <v>2</v>
@@ -1137,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="10">
         <v>2</v>
@@ -1154,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="10">
         <v>3</v>
@@ -1171,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="10">
         <v>3</v>
@@ -1188,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="10">
         <v>3</v>
@@ -1205,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="10">
         <v>3</v>
@@ -1222,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="10">
         <v>3</v>
@@ -1239,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="10">
         <v>2</v>
@@ -1256,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="10">
         <v>2</v>
@@ -1273,7 +1288,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="10">
         <v>3</v>
@@ -1290,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="10">
         <v>3</v>
@@ -1307,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="10">
         <v>3</v>
@@ -1324,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="10">
         <v>3</v>
@@ -1335,13 +1350,13 @@
         <v>24</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="10">
         <v>19</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="10">
         <v>3</v>
@@ -1358,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="10">
         <v>3</v>
@@ -1375,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="10">
         <v>3</v>
@@ -1523,7 +1538,7 @@
   <sortState ref="D28:H55">
     <sortCondition ref="D28"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
